--- a/Dehalogenation_colorimetric_assays/Fluoride Library screening undiluted.xlsx
+++ b/Dehalogenation_colorimetric_assays/Fluoride Library screening undiluted.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9440" windowHeight="6920" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9440" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Data processing" sheetId="11" r:id="rId1"/>
+    <sheet name="Fluoride conc calculation" sheetId="11" r:id="rId1"/>
     <sheet name="P1.1" sheetId="1" r:id="rId2"/>
     <sheet name="P1.2" sheetId="2" r:id="rId3"/>
     <sheet name="P1.3" sheetId="3" r:id="rId4"/>
@@ -22,21 +22,20 @@
     <sheet name="P3.1" sheetId="5" r:id="rId8"/>
     <sheet name="P3.2" sheetId="6" r:id="rId9"/>
     <sheet name="P3.3" sheetId="10" r:id="rId10"/>
-    <sheet name="P3.2 rep" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Data processing'!$B$87:$B$107</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Data processing'!$C$87:$C$107</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Data processing'!$L$87:$L$107</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Data processing'!$M$87:$M$107</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Data processing'!$D$87:$D$107</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Data processing'!$E$87:$E$107</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Data processing'!$F$87:$F$107</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Data processing'!$G$87:$G$107</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Data processing'!$H$87:$H$107</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Data processing'!$I$87:$I$107</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Data processing'!$J$87:$J$107</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Data processing'!$K$87:$K$107</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Fluoride conc calculation'!$B$87:$B$107</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Fluoride conc calculation'!$C$87:$C$107</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Fluoride conc calculation'!$L$87:$L$107</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Fluoride conc calculation'!$M$87:$M$107</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Fluoride conc calculation'!$D$87:$D$107</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Fluoride conc calculation'!$E$87:$E$107</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Fluoride conc calculation'!$F$87:$F$107</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Fluoride conc calculation'!$G$87:$G$107</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Fluoride conc calculation'!$H$87:$H$107</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Fluoride conc calculation'!$I$87:$I$107</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Fluoride conc calculation'!$J$87:$J$107</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Fluoride conc calculation'!$K$87:$K$107</definedName>
     <definedName name="MethodPointer1">-1201796400</definedName>
     <definedName name="MethodPointer2">434</definedName>
   </definedNames>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="167">
   <si>
     <t>Software Version</t>
   </si>
@@ -456,9 +455,6 @@
   </si>
   <si>
     <t>Plate 6</t>
-  </si>
-  <si>
-    <t>Plate 7</t>
   </si>
   <si>
     <t>Plate 8</t>
@@ -1259,7 +1255,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data processing'!$A$27</c:f>
+              <c:f>'Fluoride conc calculation'!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1364,7 +1360,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Data processing'!$B$29:$I$29</c:f>
+                <c:f>'Fluoride conc calculation'!$B$29:$I$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
@@ -1397,7 +1393,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Data processing'!$B$29:$I$29</c:f>
+                <c:f>'Fluoride conc calculation'!$B$29:$I$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
@@ -1449,7 +1445,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Data processing'!$B$29:$I$29</c:f>
+                <c:f>'Fluoride conc calculation'!$B$29:$I$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
@@ -1482,7 +1478,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Data processing'!$B$29:$I$29</c:f>
+                <c:f>'Fluoride conc calculation'!$B$29:$I$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
@@ -1529,7 +1525,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data processing'!$B$26:$I$26</c:f>
+              <c:f>'Fluoride conc calculation'!$B$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1562,7 +1558,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data processing'!$B$27:$I$27</c:f>
+              <c:f>'Fluoride conc calculation'!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1779,7 +1775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1500" baseline="0"/>
-                  <a:t>Abs(480/540)</a:t>
+                  <a:t>Abs(480 nm)/Abs(540 nm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3482,7 +3478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC111"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W67" zoomScale="90" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3493,19 +3491,19 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AB1" t="s">
         <v>142</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AP1" t="s">
         <v>143</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -6639,22 +6637,22 @@
         <v>78</v>
       </c>
       <c r="AP23" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ23" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="AQ23" s="102" t="s">
+      <c r="AR23" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="AR23" s="102" t="s">
+      <c r="AS23" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="AS23" s="102" t="s">
+      <c r="AT23" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="AT23" s="102" t="s">
+      <c r="AU23" s="102" t="s">
         <v>150</v>
-      </c>
-      <c r="AU23" s="102" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:55" ht="13" x14ac:dyDescent="0.3">
@@ -6785,12 +6783,12 @@
         <v>150</v>
       </c>
       <c r="BC24" s="102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6825,7 +6823,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <f>AVERAGE(B24,O24,AB24)</f>
@@ -6868,12 +6866,12 @@
         <v>1.9553750324053851</v>
       </c>
       <c r="M27" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28">
         <f>B27^2</f>
@@ -6916,18 +6914,18 @@
         <v>3.8234915173543609</v>
       </c>
       <c r="M28" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="N28" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="102" t="s">
+      <c r="O28" s="102" t="s">
         <v>157</v>
-      </c>
-      <c r="O28" s="102" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:K29" si="2">_xlfn.STDEV.S(B24,O24,AB24)</f>
@@ -7100,13 +7098,13 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B60" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="O60" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="O60" s="102" t="s">
+      <c r="AB60" s="102" t="s">
         <v>142</v>
-      </c>
-      <c r="AB60" s="102" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
@@ -10230,13 +10228,13 @@
     </row>
     <row r="85" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O85" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB85" s="102" t="s">
         <v>163</v>
-      </c>
-      <c r="AB85" s="102" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
@@ -13398,16 +13396,16 @@
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B109" s="108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O109" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB109" s="102" t="s">
         <v>161</v>
-      </c>
-      <c r="AB109" s="102" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
@@ -13499,7 +13497,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -17564,2329 +17562,6 @@
     <mergeCell ref="B55:B59"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B65:B69"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O80"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.6328125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="51" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="52">
-        <v>45666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="53">
-        <v>0.68638888888888883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="51">
-        <v>219518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="55"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="55"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57">
-        <v>1</v>
-      </c>
-      <c r="D23" s="57">
-        <v>2</v>
-      </c>
-      <c r="E23" s="57">
-        <v>3</v>
-      </c>
-      <c r="F23" s="57">
-        <v>4</v>
-      </c>
-      <c r="G23" s="57">
-        <v>5</v>
-      </c>
-      <c r="H23" s="57">
-        <v>6</v>
-      </c>
-      <c r="I23" s="57">
-        <v>7</v>
-      </c>
-      <c r="J23" s="57">
-        <v>8</v>
-      </c>
-      <c r="K23" s="57">
-        <v>9</v>
-      </c>
-      <c r="L23" s="57">
-        <v>10</v>
-      </c>
-      <c r="M23" s="57">
-        <v>11</v>
-      </c>
-      <c r="N23" s="57">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="N28" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="N29" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="O29" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="M30" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="N30" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="O30" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="L31" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="M31" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="O31" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="55"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="51">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="51">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="51">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="51">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="51">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="56"/>
-      <c r="C40" s="57">
-        <v>1</v>
-      </c>
-      <c r="D40" s="57">
-        <v>2</v>
-      </c>
-      <c r="E40" s="57">
-        <v>3</v>
-      </c>
-      <c r="F40" s="57">
-        <v>4</v>
-      </c>
-      <c r="G40" s="57">
-        <v>5</v>
-      </c>
-      <c r="H40" s="57">
-        <v>6</v>
-      </c>
-      <c r="I40" s="57">
-        <v>7</v>
-      </c>
-      <c r="J40" s="57">
-        <v>8</v>
-      </c>
-      <c r="K40" s="57">
-        <v>9</v>
-      </c>
-      <c r="L40" s="57">
-        <v>10</v>
-      </c>
-      <c r="M40" s="57">
-        <v>11</v>
-      </c>
-      <c r="N40" s="57">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="98">
-        <v>0.434</v>
-      </c>
-      <c r="D41" s="98">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="E41" s="98">
-        <v>0.432</v>
-      </c>
-      <c r="F41" s="63">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="G41" s="98">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="H41" s="63">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="I41" s="63">
-        <v>0.46</v>
-      </c>
-      <c r="J41" s="98">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="K41" s="98">
-        <v>0.443</v>
-      </c>
-      <c r="L41" s="98">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="M41" s="98">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="N41" s="98">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="O41" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="115"/>
-      <c r="C42" s="76">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="D42" s="76">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E42" s="76">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="F42" s="71">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="G42" s="76">
-        <v>0.437</v>
-      </c>
-      <c r="H42" s="71">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="I42" s="71">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="J42" s="76">
-        <v>0.44</v>
-      </c>
-      <c r="K42" s="76">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="L42" s="76">
-        <v>0.43</v>
-      </c>
-      <c r="M42" s="76">
-        <v>0.432</v>
-      </c>
-      <c r="N42" s="76">
-        <v>0.45</v>
-      </c>
-      <c r="O42" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="115"/>
-      <c r="C43" s="71">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="D43" s="71">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="E43" s="71">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F43" s="71">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="G43" s="71">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="H43" s="71">
-        <v>0.628</v>
-      </c>
-      <c r="I43" s="71">
-        <v>0.62</v>
-      </c>
-      <c r="J43" s="71">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="K43" s="71">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="L43" s="71">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="M43" s="71">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="N43" s="71">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="O43" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="115"/>
-      <c r="C44" s="76">
-        <v>0.441</v>
-      </c>
-      <c r="D44" s="76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="E44" s="76">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F44" s="76">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="G44" s="76">
-        <v>0.441</v>
-      </c>
-      <c r="H44" s="76">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="I44" s="76">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="J44" s="76">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="K44" s="76">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="L44" s="76">
-        <v>0.436</v>
-      </c>
-      <c r="M44" s="76">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="N44" s="76">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="O44" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="116"/>
-      <c r="C45" s="93">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D45" s="80">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="E45" s="93">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F45" s="93">
-        <v>0.255</v>
-      </c>
-      <c r="G45" s="93">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="H45" s="93">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="I45" s="93">
-        <v>0.308</v>
-      </c>
-      <c r="J45" s="93">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="K45" s="93">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="L45" s="93">
-        <v>0.378</v>
-      </c>
-      <c r="M45" s="93">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="N45" s="93">
-        <v>0.222</v>
-      </c>
-      <c r="O45" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="98">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D46" s="98">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E46" s="98">
-        <v>0.376</v>
-      </c>
-      <c r="F46" s="98">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="G46" s="98">
-        <v>0.436</v>
-      </c>
-      <c r="H46" s="98">
-        <v>0.438</v>
-      </c>
-      <c r="I46" s="63">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="J46" s="98">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="K46" s="98">
-        <v>0.44</v>
-      </c>
-      <c r="L46" s="98">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="M46" s="98">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="N46" s="98">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="O46" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="115"/>
-      <c r="C47" s="76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D47" s="76">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E47" s="76">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F47" s="71">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="G47" s="76">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="H47" s="76">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="I47" s="71">
-        <v>0.48</v>
-      </c>
-      <c r="J47" s="76">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="K47" s="71">
-        <v>0.46</v>
-      </c>
-      <c r="L47" s="76">
-        <v>0.434</v>
-      </c>
-      <c r="M47" s="71">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="N47" s="76">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="O47" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="115"/>
-      <c r="C48" s="71">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="D48" s="71">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E48" s="71">
-        <v>0.52</v>
-      </c>
-      <c r="F48" s="71">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="G48" s="71">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="H48" s="71">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="I48" s="71">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="J48" s="71">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K48" s="71">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="L48" s="71">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="M48" s="71">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="N48" s="71">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="O48" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
-      <c r="C49" s="76">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D49" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E49" s="76">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="F49" s="76">
-        <v>0.442</v>
-      </c>
-      <c r="G49" s="76">
-        <v>0.434</v>
-      </c>
-      <c r="H49" s="76">
-        <v>0.437</v>
-      </c>
-      <c r="I49" s="76">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="J49" s="76">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="K49" s="76">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="L49" s="76">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="M49" s="76">
-        <v>0.439</v>
-      </c>
-      <c r="N49" s="76">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="O49" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="116"/>
-      <c r="C50" s="80">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D50" s="80">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E50" s="93">
-        <v>0.371</v>
-      </c>
-      <c r="F50" s="93">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="G50" s="93">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="H50" s="93">
-        <v>0.246</v>
-      </c>
-      <c r="I50" s="93">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="J50" s="93">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="K50" s="93">
-        <v>0.252</v>
-      </c>
-      <c r="L50" s="93">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="M50" s="93">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="N50" s="93">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="O50" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="98">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D51" s="98">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="E51" s="98">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="F51" s="98">
-        <v>0.439</v>
-      </c>
-      <c r="G51" s="98">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="H51" s="98">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="I51" s="98">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="J51" s="98">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="K51" s="63">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L51" s="98">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="M51" s="98">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="N51" s="63">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O51" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="115"/>
-      <c r="C52" s="76">
-        <v>0.443</v>
-      </c>
-      <c r="D52" s="71">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E52" s="76">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="F52" s="76">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="G52" s="76">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="H52" s="76">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I52" s="76">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="J52" s="76">
-        <v>0.438</v>
-      </c>
-      <c r="K52" s="71">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L52" s="76">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="M52" s="76">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="N52" s="71">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="O52" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="115"/>
-      <c r="C53" s="71">
-        <v>0.6</v>
-      </c>
-      <c r="D53" s="71">
-        <v>0.621</v>
-      </c>
-      <c r="E53" s="71">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F53" s="71">
-        <v>0.621</v>
-      </c>
-      <c r="G53" s="71">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="H53" s="71">
-        <v>0.59</v>
-      </c>
-      <c r="I53" s="71">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J53" s="71">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="K53" s="71">
-        <v>0.624</v>
-      </c>
-      <c r="L53" s="71">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="M53" s="71">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="N53" s="71">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="O53" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="115"/>
-      <c r="C54" s="76">
-        <v>0.434</v>
-      </c>
-      <c r="D54" s="76">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="E54" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="F54" s="76">
-        <v>0.441</v>
-      </c>
-      <c r="G54" s="76">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="H54" s="76">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I54" s="76">
-        <v>0.435</v>
-      </c>
-      <c r="J54" s="76">
-        <v>0.436</v>
-      </c>
-      <c r="K54" s="76">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="L54" s="76">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="M54" s="76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="N54" s="76">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="O54" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="116"/>
-      <c r="C55" s="93">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D55" s="93">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E55" s="93">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="F55" s="93">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="G55" s="80">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="H55" s="93">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="I55" s="93">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="J55" s="93">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="K55" s="93">
-        <v>0.247</v>
-      </c>
-      <c r="L55" s="80">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="M55" s="80">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="N55" s="93">
-        <v>0.249</v>
-      </c>
-      <c r="O55" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="98">
-        <v>0.435</v>
-      </c>
-      <c r="D56" s="98">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="E56" s="98">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="F56" s="98">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="G56" s="98">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="H56" s="98">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="I56" s="98">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="J56" s="98">
-        <v>0.439</v>
-      </c>
-      <c r="K56" s="98">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="L56" s="98">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="M56" s="98">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="N56" s="98">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="O56" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
-      <c r="C57" s="76">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="D57" s="76">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="E57" s="76">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="F57" s="71">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="G57" s="76">
-        <v>0.437</v>
-      </c>
-      <c r="H57" s="76">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="I57" s="76">
-        <v>0.441</v>
-      </c>
-      <c r="J57" s="71">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="K57" s="76">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="L57" s="76">
-        <v>0.314</v>
-      </c>
-      <c r="M57" s="76">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="N57" s="76">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="O57" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="115"/>
-      <c r="C58" s="71">
-        <v>0.62</v>
-      </c>
-      <c r="D58" s="71">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="E58" s="71">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F58" s="71">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="G58" s="71">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="H58" s="71">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="I58" s="71">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="J58" s="71">
-        <v>0.628</v>
-      </c>
-      <c r="K58" s="76">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="L58" s="76">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="M58" s="76">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="N58" s="76">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="O58" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="115"/>
-      <c r="C59" s="76">
-        <v>0.441</v>
-      </c>
-      <c r="D59" s="76">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="E59" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="F59" s="76">
-        <v>0.45</v>
-      </c>
-      <c r="G59" s="76">
-        <v>0.43</v>
-      </c>
-      <c r="H59" s="76">
-        <v>0.432</v>
-      </c>
-      <c r="I59" s="76">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="J59" s="76">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="K59" s="76">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="L59" s="76">
-        <v>0.37</v>
-      </c>
-      <c r="M59" s="76">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="N59" s="76">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="O59" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="116"/>
-      <c r="C60" s="93">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="D60" s="80">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E60" s="93">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="F60" s="93">
-        <v>0.248</v>
-      </c>
-      <c r="G60" s="93">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H60" s="80">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I60" s="93">
-        <v>0.317</v>
-      </c>
-      <c r="J60" s="93">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="K60" s="80">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="L60" s="80">
-        <v>0.443</v>
-      </c>
-      <c r="M60" s="80">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="N60" s="80">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O60" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="63">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D61" s="98">
-        <v>0.442</v>
-      </c>
-      <c r="E61" s="98">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="F61" s="98">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G61" s="98">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="H61" s="63">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="I61" s="98">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="J61" s="98">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="K61" s="98">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="L61" s="98">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="M61" s="98">
-        <v>0.313</v>
-      </c>
-      <c r="N61" s="98">
-        <v>0.3</v>
-      </c>
-      <c r="O61" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
-      <c r="C62" s="71">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D62" s="71">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E62" s="76">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="F62" s="76">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="G62" s="76">
-        <v>0.435</v>
-      </c>
-      <c r="H62" s="71">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="I62" s="76">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="J62" s="76">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="K62" s="76">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="L62" s="76">
-        <v>0.316</v>
-      </c>
-      <c r="M62" s="76">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="N62" s="76">
-        <v>0.31</v>
-      </c>
-      <c r="O62" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="115"/>
-      <c r="C63" s="71">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="D63" s="71">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="E63" s="71">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="F63" s="71">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G63" s="71">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="H63" s="71">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="I63" s="76">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="J63" s="76">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="K63" s="71">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="L63" s="76">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="M63" s="76">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="N63" s="76">
-        <v>0.45</v>
-      </c>
-      <c r="O63" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="115"/>
-      <c r="C64" s="76">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D64" s="76">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="E64" s="76">
-        <v>0.42</v>
-      </c>
-      <c r="F64" s="76">
-        <v>0.432</v>
-      </c>
-      <c r="G64" s="76">
-        <v>0.437</v>
-      </c>
-      <c r="H64" s="76">
-        <v>0.497</v>
-      </c>
-      <c r="I64" s="76">
-        <v>0.36</v>
-      </c>
-      <c r="J64" s="76">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="K64" s="76">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="L64" s="76">
-        <v>0.371</v>
-      </c>
-      <c r="M64" s="76">
-        <v>0.378</v>
-      </c>
-      <c r="N64" s="76">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="O64" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="116"/>
-      <c r="C65" s="93">
-        <v>0.247</v>
-      </c>
-      <c r="D65" s="93">
-        <v>0.222</v>
-      </c>
-      <c r="E65" s="93">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F65" s="93">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="G65" s="93">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H65" s="80">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="I65" s="80">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="J65" s="80">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="K65" s="93">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="L65" s="80">
-        <v>0.439</v>
-      </c>
-      <c r="M65" s="80">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="N65" s="93">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="O65" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="98">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D66" s="98">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E66" s="98">
-        <v>0.439</v>
-      </c>
-      <c r="F66" s="98">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="G66" s="98">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="H66" s="98">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="I66" s="98">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J66" s="98">
-        <v>0.41</v>
-      </c>
-      <c r="K66" s="98">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="L66" s="98">
-        <v>0.373</v>
-      </c>
-      <c r="M66" s="98">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="N66" s="98">
-        <v>0.37</v>
-      </c>
-      <c r="O66" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="115"/>
-      <c r="C67" s="76">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D67" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E67" s="76">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F67" s="76">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="G67" s="76">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="H67" s="76">
-        <v>0.434</v>
-      </c>
-      <c r="I67" s="76">
-        <v>0.435</v>
-      </c>
-      <c r="J67" s="76">
-        <v>0.43</v>
-      </c>
-      <c r="K67" s="76">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="L67" s="76">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="M67" s="76">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="N67" s="76">
-        <v>0.377</v>
-      </c>
-      <c r="O67" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="115"/>
-      <c r="C68" s="71">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="D68" s="71">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E68" s="71">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="F68" s="71">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="G68" s="71">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H68" s="71">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="I68" s="71">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="J68" s="71">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="K68" s="71">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="L68" s="71">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="M68" s="76">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="N68" s="76">
-        <v>0.501</v>
-      </c>
-      <c r="O68" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="115"/>
-      <c r="C69" s="76">
-        <v>0.43</v>
-      </c>
-      <c r="D69" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E69" s="76">
-        <v>0.433</v>
-      </c>
-      <c r="F69" s="76">
-        <v>0.42</v>
-      </c>
-      <c r="G69" s="76">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="H69" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="I69" s="76">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="J69" s="76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="K69" s="76">
-        <v>0.433</v>
-      </c>
-      <c r="L69" s="76">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="M69" s="76">
-        <v>0.378</v>
-      </c>
-      <c r="N69" s="76">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="O69" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="116"/>
-      <c r="C70" s="80">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D70" s="93">
-        <v>0.374</v>
-      </c>
-      <c r="E70" s="93">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F70" s="93">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="G70" s="93">
-        <v>0.307</v>
-      </c>
-      <c r="H70" s="93">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="I70" s="93">
-        <v>0.247</v>
-      </c>
-      <c r="J70" s="93">
-        <v>0.246</v>
-      </c>
-      <c r="K70" s="93">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="L70" s="93">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="M70" s="93">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="N70" s="93">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="O70" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="60">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="D71" s="61">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E71" s="87">
-        <v>1.8120000000000001</v>
-      </c>
-      <c r="F71" s="87">
-        <v>1.827</v>
-      </c>
-      <c r="G71" s="86">
-        <v>1.877</v>
-      </c>
-      <c r="H71" s="67">
-        <v>2.1789999999999998</v>
-      </c>
-      <c r="I71" s="94">
-        <v>2.444</v>
-      </c>
-      <c r="J71" s="100">
-        <v>2.669</v>
-      </c>
-      <c r="K71" s="100">
-        <v>2.758</v>
-      </c>
-      <c r="L71" s="100">
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="M71" s="101">
-        <v>2.347</v>
-      </c>
-      <c r="N71" s="100">
-        <v>2.5870000000000002</v>
-      </c>
-      <c r="O71" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="115"/>
-      <c r="C72" s="68">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="D72" s="69">
-        <v>1.016</v>
-      </c>
-      <c r="E72" s="88">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="F72" s="88">
-        <v>1.8240000000000001</v>
-      </c>
-      <c r="G72" s="88">
-        <v>1.861</v>
-      </c>
-      <c r="H72" s="75">
-        <v>2.1629999999999998</v>
-      </c>
-      <c r="I72" s="91">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="J72" s="90">
-        <v>2.6579999999999999</v>
-      </c>
-      <c r="K72" s="90">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="L72" s="91">
-        <v>2.415</v>
-      </c>
-      <c r="M72" s="89">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="N72" s="91">
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="O72" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="115"/>
-      <c r="C73" s="69">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="D73" s="70">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="E73" s="88">
-        <v>1.704</v>
-      </c>
-      <c r="F73" s="88">
-        <v>1.722</v>
-      </c>
-      <c r="G73" s="88">
-        <v>1.7589999999999999</v>
-      </c>
-      <c r="H73" s="75">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="I73" s="89">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J73" s="90">
-        <v>2.6230000000000002</v>
-      </c>
-      <c r="K73" s="90">
-        <v>2.7109999999999999</v>
-      </c>
-      <c r="L73" s="77">
-        <v>1.988</v>
-      </c>
-      <c r="M73" s="77">
-        <v>1.996</v>
-      </c>
-      <c r="N73" s="91">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="O73" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="115"/>
-      <c r="C74" s="69">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D74" s="70">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="E74" s="74">
-        <v>1.669</v>
-      </c>
-      <c r="F74" s="74">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="G74" s="88">
-        <v>1.718</v>
-      </c>
-      <c r="H74" s="77">
-        <v>2.008</v>
-      </c>
-      <c r="I74" s="89">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J74" s="90">
-        <v>2.6429999999999998</v>
-      </c>
-      <c r="K74" s="90">
-        <v>2.7410000000000001</v>
-      </c>
-      <c r="L74" s="77">
-        <v>1.903</v>
-      </c>
-      <c r="M74" s="77">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="N74" s="91">
-        <v>2.4769999999999999</v>
-      </c>
-      <c r="O74" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="116"/>
-      <c r="C75" s="82">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D75" s="78">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E75" s="81">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="F75" s="81">
-        <v>1.6479999999999999</v>
-      </c>
-      <c r="G75" s="96">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="H75" s="97">
-        <v>1.9730000000000001</v>
-      </c>
-      <c r="I75" s="99">
-        <v>2.2240000000000002</v>
-      </c>
-      <c r="J75" s="92">
-        <v>2.6469999999999998</v>
-      </c>
-      <c r="K75" s="92">
-        <v>2.7370000000000001</v>
-      </c>
-      <c r="L75" s="97">
-        <v>1.86</v>
-      </c>
-      <c r="M75" s="83">
-        <v>2.06</v>
-      </c>
-      <c r="N75" s="84">
-        <v>2.4769999999999999</v>
-      </c>
-      <c r="O75" s="59">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="94">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="D76" s="101">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="E76" s="94">
-        <v>2.42</v>
-      </c>
-      <c r="F76" s="100">
-        <v>2.6110000000000002</v>
-      </c>
-      <c r="G76" s="100">
-        <v>2.6520000000000001</v>
-      </c>
-      <c r="H76" s="100">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="I76" s="86">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="J76" s="86">
-        <v>1.883</v>
-      </c>
-      <c r="K76" s="60">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="L76" s="62">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="M76" s="65">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="N76" s="63">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="O76" s="59">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="115"/>
-      <c r="C77" s="91">
-        <v>2.468</v>
-      </c>
-      <c r="D77" s="89">
-        <v>2.36</v>
-      </c>
-      <c r="E77" s="91">
-        <v>2.3959999999999999</v>
-      </c>
-      <c r="F77" s="90">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="G77" s="90">
-        <v>2.6349999999999998</v>
-      </c>
-      <c r="H77" s="90">
-        <v>2.66</v>
-      </c>
-      <c r="I77" s="77">
-        <v>1.901</v>
-      </c>
-      <c r="J77" s="88">
-        <v>1.839</v>
-      </c>
-      <c r="K77" s="68">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="L77" s="70">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="M77" s="73">
-        <v>0.751</v>
-      </c>
-      <c r="N77" s="76">
-        <v>0.44</v>
-      </c>
-      <c r="O77" s="59">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="115"/>
-      <c r="C78" s="91">
-        <v>2.391</v>
-      </c>
-      <c r="D78" s="89">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="E78" s="89">
-        <v>2.3069999999999999</v>
-      </c>
-      <c r="F78" s="90">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="G78" s="90">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="H78" s="90">
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="I78" s="74">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="J78" s="74">
-        <v>1.615</v>
-      </c>
-      <c r="K78" s="69">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="L78" s="73">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="M78" s="71">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="N78" s="76">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="O78" s="59">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="115"/>
-      <c r="C79" s="89">
-        <v>2.355</v>
-      </c>
-      <c r="D79" s="89">
-        <v>2.2309999999999999</v>
-      </c>
-      <c r="E79" s="89">
-        <v>2.274</v>
-      </c>
-      <c r="F79" s="90">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="G79" s="90">
-        <v>2.649</v>
-      </c>
-      <c r="H79" s="90">
-        <v>2.665</v>
-      </c>
-      <c r="I79" s="88">
-        <v>1.764</v>
-      </c>
-      <c r="J79" s="74">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="K79" s="69">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="L79" s="73">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="M79" s="73">
-        <v>0.748</v>
-      </c>
-      <c r="N79" s="76">
-        <v>0.502</v>
-      </c>
-      <c r="O79" s="59">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="116"/>
-      <c r="C80" s="99">
-        <v>2.306</v>
-      </c>
-      <c r="D80" s="83">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E80" s="99">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="F80" s="92">
-        <v>2.5870000000000002</v>
-      </c>
-      <c r="G80" s="92">
-        <v>2.661</v>
-      </c>
-      <c r="H80" s="92">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="I80" s="97">
-        <v>1.831</v>
-      </c>
-      <c r="J80" s="96">
-        <v>1.754</v>
-      </c>
-      <c r="K80" s="82">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="L80" s="78">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="M80" s="95">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="N80" s="85">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="O80" s="59">
-        <v>540</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -36430,7 +34105,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -40553,7 +38228,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/Dehalogenation_colorimetric_assays/Fluoride Library screening undiluted.xlsx
+++ b/Dehalogenation_colorimetric_assays/Fluoride Library screening undiluted.xlsx
@@ -3478,12 +3478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W67" zoomScale="90" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q118" sqref="Q118"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -13457,8 +13458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O117"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:N117"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -42311,8 +42312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:N118"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -46434,8 +46435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:N118"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/Dehalogenation_colorimetric_assays/Fluoride Library screening undiluted.xlsx
+++ b/Dehalogenation_colorimetric_assays/Fluoride Library screening undiluted.xlsx
@@ -3478,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD87" sqref="AD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
